--- a/ValueSet-stroke-diagnosis-vs.xlsx
+++ b/ValueSet-stroke-diagnosis-vs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/stroke-diagnosis-vs</t>
+    <t>http://tecnomod-um.org/ValueSet/stroke-diagnosis-vs</t>
   </si>
   <si>
     <t>Version</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>UMU (http://testSK.org/umu)</t>
+    <t>UMU (http://tecnomod-um.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
